--- a/Scanorders2/src/Oleg/UserdirectoryBundle/Util/users.xlsx
+++ b/Scanorders2/src/Oleg/UserdirectoryBundle/Util/users.xlsx
@@ -10,7 +10,7 @@
     <sheet name="owssvr.dll" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="owssvr.dll" localSheetId="0" hidden="1">owssvr.dll!$A$1:$O$174</definedName>
+    <definedName name="owssvr.dll" localSheetId="0" hidden="1">owssvr.dll!$A$1:$O$173</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="971">
   <si>
     <t>A</t>
   </si>
@@ -2938,15 +2938,6 @@
   </si>
   <si>
     <t>C-312</t>
-  </si>
-  <si>
-    <t>Oleg</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>oli2002@med.cornell.edu</t>
   </si>
 </sst>
 </file>
@@ -3588,8 +3579,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr.dll" displayName="Table_owssvr.dll" ref="A1:O174" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:O174"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr.dll" displayName="Table_owssvr.dll" ref="A1:O173" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:O173"/>
   <tableColumns count="15">
     <tableColumn id="1" uniqueName="A" name="A" queryTableFieldId="1" dataDxfId="14"/>
     <tableColumn id="2" uniqueName="Primary_x005f_x0020_Group" name="Primary Group" queryTableFieldId="2" dataDxfId="13"/>
@@ -3866,7 +3857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3874,10 +3865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O174"/>
+  <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G159" workbookViewId="0">
-      <selection activeCell="O174" sqref="O174"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11363,37 +11354,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="4" t="s">
-        <v>973</v>
-      </c>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L174" r:id="rId1"/>
-    <hyperlink ref="L173" r:id="rId2"/>
+    <hyperlink ref="L173" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Scanorders2/src/Oleg/UserdirectoryBundle/Util/users.xlsx
+++ b/Scanorders2/src/Oleg/UserdirectoryBundle/Util/users.xlsx
@@ -10,7 +10,7 @@
     <sheet name="owssvr.dll" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="owssvr.dll" localSheetId="0" hidden="1">owssvr.dll!$A$1:$O$173</definedName>
+    <definedName name="owssvr.dll" localSheetId="0" hidden="1">owssvr.dll!$A$1:$O$174</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="976">
   <si>
     <t>A</t>
   </si>
@@ -363,9 +363,6 @@
     <t>Starr-1007</t>
   </si>
   <si>
-    <t>Informatics</t>
-  </si>
-  <si>
     <t>Brodsky</t>
   </si>
   <si>
@@ -2938,6 +2935,24 @@
   </si>
   <si>
     <t>C-312</t>
+  </si>
+  <si>
+    <t>Oleg Ivanov</t>
+  </si>
+  <si>
+    <t>Ivanov</t>
+  </si>
+  <si>
+    <t>Oleg</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>oli2002@med.cornell.edu</t>
+  </si>
+  <si>
+    <t>Pathology informatics</t>
   </si>
 </sst>
 </file>
@@ -3579,8 +3594,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr.dll" displayName="Table_owssvr.dll" ref="A1:O173" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:O173"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr.dll" displayName="Table_owssvr.dll" ref="A1:O174" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:O174"/>
   <tableColumns count="15">
     <tableColumn id="1" uniqueName="A" name="A" queryTableFieldId="1" dataDxfId="14"/>
     <tableColumn id="2" uniqueName="Primary_x005f_x0020_Group" name="Primary Group" queryTableFieldId="2" dataDxfId="13"/>
@@ -3857,7 +3872,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3865,10 +3880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O173"/>
+  <dimension ref="A1:O174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4543,33 +4558,33 @@
         <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>112</v>
+        <v>975</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="H17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>24</v>
@@ -4586,7 +4601,7 @@
         <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>103</v>
@@ -4595,25 +4610,25 @@
         <v>101</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>54</v>
@@ -4633,35 +4648,35 @@
         <v>91</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>24</v>
@@ -4678,33 +4693,33 @@
         <v>91</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>24</v>
@@ -4721,37 +4736,37 @@
         <v>91</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>24</v>
@@ -4768,7 +4783,7 @@
         <v>91</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>103</v>
@@ -4777,25 +4792,25 @@
         <v>101</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>110</v>
@@ -4815,32 +4830,32 @@
         <v>91</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>110</v>
@@ -4860,35 +4875,35 @@
         <v>91</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>24</v>
@@ -4905,32 +4920,32 @@
         <v>91</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>110</v>
@@ -4950,33 +4965,33 @@
         <v>91</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="H26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>24</v>
@@ -4993,32 +5008,32 @@
         <v>91</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>110</v>
@@ -5038,7 +5053,7 @@
         <v>91</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>103</v>
@@ -5047,25 +5062,25 @@
         <v>101</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>110</v>
@@ -5085,32 +5100,32 @@
         <v>91</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>110</v>
@@ -5130,32 +5145,32 @@
         <v>91</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>110</v>
@@ -5175,35 +5190,35 @@
         <v>91</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>24</v>
@@ -5220,32 +5235,32 @@
         <v>91</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>30</v>
@@ -5265,7 +5280,7 @@
         <v>91</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>103</v>
@@ -5274,28 +5289,28 @@
         <v>101</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="M33" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>24</v>
@@ -5312,32 +5327,32 @@
         <v>91</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="H34" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>61</v>
@@ -5357,35 +5372,35 @@
         <v>91</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="M35" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>24</v>
@@ -5402,35 +5417,35 @@
         <v>91</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="M36" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>24</v>
@@ -5447,7 +5462,7 @@
         <v>91</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>103</v>
@@ -5456,25 +5471,25 @@
         <v>101</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>110</v>
@@ -5494,35 +5509,35 @@
         <v>91</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="M38" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>24</v>
@@ -5539,35 +5554,35 @@
         <v>91</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="M39" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>24</v>
@@ -5584,35 +5599,35 @@
         <v>91</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="M40" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>24</v>
@@ -5629,35 +5644,35 @@
         <v>91</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="M41" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>24</v>
@@ -5674,33 +5689,33 @@
         <v>91</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="H42" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>24</v>
@@ -5717,32 +5732,32 @@
         <v>91</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>110</v>
@@ -5759,36 +5774,36 @@
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="H44" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>24</v>
@@ -5802,36 +5817,36 @@
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="H45" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>24</v>
@@ -5845,34 +5860,34 @@
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="H46" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>24</v>
@@ -5886,35 +5901,35 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>110</v>
@@ -5931,34 +5946,34 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="H48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>24</v>
@@ -5972,33 +5987,33 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>30</v>
@@ -6015,36 +6030,36 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L50" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="I50" s="2" t="s">
+      <c r="M50" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>24</v>
@@ -6058,34 +6073,34 @@
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="H51" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>24</v>
@@ -6099,36 +6114,36 @@
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>112</v>
+        <v>975</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L52" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="M52" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>24</v>
@@ -6142,36 +6157,36 @@
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="H53" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>24</v>
@@ -6185,34 +6200,34 @@
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>24</v>
@@ -6226,36 +6241,36 @@
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>112</v>
+        <v>975</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L55" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="M55" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>24</v>
@@ -6269,33 +6284,33 @@
         <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="H56" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>30</v>
@@ -6312,34 +6327,34 @@
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L57" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>24</v>
@@ -6353,29 +6368,29 @@
         <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="H58" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>110</v>
@@ -6392,35 +6407,35 @@
         <v>0</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="L59" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>21</v>
@@ -6437,38 +6452,38 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="L60" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J60" s="2" t="s">
+      <c r="M60" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>24</v>
@@ -6482,38 +6497,38 @@
         <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="M61" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>24</v>
@@ -6527,38 +6542,38 @@
         <v>0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="L62" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="M62" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>24</v>
@@ -6572,38 +6587,38 @@
         <v>0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="J63" s="2" t="s">
+      <c r="M63" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>24</v>
@@ -6617,35 +6632,35 @@
         <v>1</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H64" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="K64" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="L64" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>21</v>
@@ -6662,36 +6677,36 @@
         <v>0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H65" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>24</v>
@@ -6705,36 +6720,36 @@
         <v>0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="H66" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>24</v>
@@ -6748,37 +6763,37 @@
         <v>0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="L67" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>21</v>
@@ -6795,38 +6810,38 @@
         <v>0</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F68" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L68" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="M68" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>24</v>
@@ -6840,38 +6855,38 @@
         <v>0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F69" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="L69" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="M69" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>24</v>
@@ -6885,36 +6900,36 @@
         <v>0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="H70" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>24</v>
@@ -6928,38 +6943,38 @@
         <v>0</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="H71" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>24</v>
@@ -6973,38 +6988,38 @@
         <v>0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="L72" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="J72" s="2" t="s">
+      <c r="M72" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>24</v>
@@ -7018,38 +7033,38 @@
         <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="L73" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>500</v>
-      </c>
       <c r="M73" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>24</v>
@@ -7063,23 +7078,23 @@
         <v>1</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="H74" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>29</v>
@@ -7089,7 +7104,7 @@
         <v>31</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>30</v>
@@ -7106,35 +7121,35 @@
         <v>1</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="L75" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>47</v>
@@ -7151,35 +7166,35 @@
         <v>0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="L76" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>47</v>
@@ -7196,38 +7211,38 @@
         <v>0</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="L77" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="J77" s="2" t="s">
+      <c r="M77" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>24</v>
@@ -7241,40 +7256,40 @@
         <v>0</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="E78" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="H78" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="L78" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="J78" s="2" t="s">
+      <c r="M78" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>24</v>
@@ -7288,38 +7303,38 @@
         <v>0</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>482</v>
-      </c>
       <c r="D79" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F79" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="H79" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>24</v>
@@ -7333,38 +7348,38 @@
         <v>0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F80" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L80" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J80" s="2" t="s">
+      <c r="M80" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>24</v>
@@ -7378,36 +7393,36 @@
         <v>0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F81" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>551</v>
-      </c>
       <c r="H81" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>24</v>
@@ -7421,38 +7436,38 @@
         <v>0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="L82" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="H82" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>556</v>
-      </c>
       <c r="M82" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>24</v>
@@ -7466,38 +7481,38 @@
         <v>0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F83" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="H83" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="L83" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="M83" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>24</v>
@@ -7511,38 +7526,38 @@
         <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F84" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L84" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="H84" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="M84" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>24</v>
@@ -7556,38 +7571,38 @@
         <v>0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F85" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="H85" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="L85" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="H85" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>575</v>
-      </c>
       <c r="M85" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>24</v>
@@ -7601,38 +7616,38 @@
         <v>0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="H86" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L86" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="M86" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>24</v>
@@ -7646,36 +7661,36 @@
         <v>0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>24</v>
@@ -7689,38 +7704,38 @@
         <v>0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="L88" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="H88" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>589</v>
-      </c>
       <c r="M88" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>24</v>
@@ -7734,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="2"/>
@@ -7742,28 +7757,28 @@
         <v>101</v>
       </c>
       <c r="F89" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L89" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="H89" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>594</v>
-      </c>
       <c r="M89" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>24</v>
@@ -7777,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="2"/>
@@ -7785,28 +7800,28 @@
         <v>101</v>
       </c>
       <c r="F90" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="H90" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L90" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>599</v>
-      </c>
       <c r="M90" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>24</v>
@@ -7820,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="2"/>
@@ -7828,28 +7843,28 @@
         <v>101</v>
       </c>
       <c r="F91" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="H91" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L91" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>603</v>
-      </c>
       <c r="M91" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>24</v>
@@ -7863,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="2"/>
@@ -7871,28 +7886,28 @@
         <v>101</v>
       </c>
       <c r="F92" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L92" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>607</v>
-      </c>
       <c r="M92" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>24</v>
@@ -7906,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="2"/>
@@ -7914,28 +7929,28 @@
         <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="H93" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L93" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="H93" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>611</v>
-      </c>
       <c r="M93" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>24</v>
@@ -7949,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="2"/>
@@ -7957,28 +7972,28 @@
         <v>101</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="H94" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L94" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>616</v>
-      </c>
       <c r="M94" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>24</v>
@@ -7992,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="2"/>
@@ -8000,28 +8015,28 @@
         <v>101</v>
       </c>
       <c r="F95" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L95" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>619</v>
-      </c>
       <c r="M95" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>24</v>
@@ -8035,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="2"/>
@@ -8043,28 +8058,28 @@
         <v>101</v>
       </c>
       <c r="F96" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="H96" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L96" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="H96" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>623</v>
-      </c>
       <c r="M96" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>24</v>
@@ -8078,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="2"/>
@@ -8086,28 +8101,28 @@
         <v>101</v>
       </c>
       <c r="F97" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="H97" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L97" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="H97" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>627</v>
-      </c>
       <c r="M97" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>24</v>
@@ -8121,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="2"/>
@@ -8129,28 +8144,28 @@
         <v>101</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="H98" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L98" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>631</v>
-      </c>
       <c r="M98" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>24</v>
@@ -8164,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="2"/>
@@ -8172,28 +8187,28 @@
         <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="H99" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L99" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="H99" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="M99" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>24</v>
@@ -8207,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="2"/>
@@ -8215,28 +8230,28 @@
         <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L100" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="H100" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>639</v>
-      </c>
       <c r="M100" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>24</v>
@@ -8250,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="2"/>
@@ -8258,28 +8273,28 @@
         <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="H101" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L101" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="H101" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>643</v>
-      </c>
       <c r="M101" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>24</v>
@@ -8293,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="2"/>
@@ -8301,28 +8316,28 @@
         <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="H102" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L102" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="H102" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>647</v>
-      </c>
       <c r="M102" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>24</v>
@@ -8336,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="2"/>
@@ -8344,28 +8359,28 @@
         <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="H103" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L103" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="H103" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="M103" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>24</v>
@@ -8379,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="2"/>
@@ -8387,28 +8402,28 @@
         <v>101</v>
       </c>
       <c r="F104" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="H104" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L104" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="H104" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>655</v>
-      </c>
       <c r="M104" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>24</v>
@@ -8422,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="2"/>
@@ -8430,28 +8445,28 @@
         <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L105" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="H105" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>659</v>
-      </c>
       <c r="M105" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>24</v>
@@ -8465,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="2"/>
@@ -8473,28 +8488,28 @@
         <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="H106" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L106" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="H106" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="M106" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>24</v>
@@ -8508,7 +8523,7 @@
         <v>0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="2"/>
@@ -8516,28 +8531,28 @@
         <v>101</v>
       </c>
       <c r="F107" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="H107" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L107" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="H107" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>668</v>
-      </c>
       <c r="M107" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>24</v>
@@ -8551,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="2"/>
@@ -8559,28 +8574,28 @@
         <v>101</v>
       </c>
       <c r="F108" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="H108" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L108" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="H108" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>672</v>
-      </c>
       <c r="M108" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N108" s="2" t="s">
         <v>24</v>
@@ -8594,7 +8609,7 @@
         <v>0</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="2"/>
@@ -8602,28 +8617,28 @@
         <v>101</v>
       </c>
       <c r="F109" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="H109" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L109" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="H109" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>676</v>
-      </c>
       <c r="M109" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N109" s="2" t="s">
         <v>24</v>
@@ -8637,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="2"/>
@@ -8645,28 +8660,28 @@
         <v>101</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G110" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L110" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="H110" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L110" s="2" t="s">
-        <v>679</v>
-      </c>
       <c r="M110" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N110" s="2" t="s">
         <v>24</v>
@@ -8680,31 +8695,31 @@
         <v>1</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="H111" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="L111" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>21</v>
@@ -8721,34 +8736,34 @@
         <v>0</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="H112" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="L112" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="H112" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="J112" s="2" t="s">
+      <c r="M112" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="N112" s="2" t="s">
         <v>24</v>
@@ -8762,34 +8777,34 @@
         <v>0</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="H113" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="L113" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="H113" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="L113" s="2" t="s">
-        <v>699</v>
-      </c>
       <c r="M113" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N113" s="2" t="s">
         <v>24</v>
@@ -8803,32 +8818,32 @@
         <v>0</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>705</v>
-      </c>
       <c r="H114" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="I114" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="J114" s="2"/>
       <c r="K114" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>24</v>
@@ -8842,29 +8857,29 @@
         <v>0</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>712</v>
-      </c>
       <c r="H115" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="I115" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>715</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>21</v>
@@ -8881,36 +8896,36 @@
         <v>0</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>717</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>718</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>720</v>
-      </c>
       <c r="H116" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>24</v>
@@ -8924,29 +8939,29 @@
         <v>0</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>726</v>
-      </c>
       <c r="H117" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="I117" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>110</v>
@@ -8963,32 +8978,32 @@
         <v>0</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H118" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="J118" s="2"/>
       <c r="K118" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>24</v>
@@ -9002,34 +9017,34 @@
         <v>0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="L119" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>738</v>
-      </c>
       <c r="M119" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>24</v>
@@ -9043,34 +9058,34 @@
         <v>0</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="H120" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="L120" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="H120" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="L120" s="2" t="s">
-        <v>743</v>
-      </c>
       <c r="M120" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>24</v>
@@ -9084,31 +9099,31 @@
         <v>0</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="H121" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="L121" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>21</v>
@@ -9125,34 +9140,34 @@
         <v>0</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>758</v>
-      </c>
       <c r="H122" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="I122" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="J122" s="2"/>
       <c r="K122" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N122" s="2" t="s">
         <v>24</v>
@@ -9166,34 +9181,34 @@
         <v>0</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="G123" s="2" t="s">
-        <v>765</v>
-      </c>
       <c r="H123" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="I123" s="2" t="s">
         <v>767</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>768</v>
       </c>
       <c r="J123" s="2"/>
       <c r="K123" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>24</v>
@@ -9207,36 +9222,36 @@
         <v>0</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F124" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>771</v>
-      </c>
       <c r="H124" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J124" s="2"/>
       <c r="K124" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>24</v>
@@ -9250,38 +9265,38 @@
         <v>0</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>718</v>
-      </c>
       <c r="E125" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F125" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="G125" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="H125" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="I125" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="J125" s="2"/>
       <c r="K125" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>24</v>
@@ -9295,36 +9310,36 @@
         <v>0</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F126" s="2" t="s">
+      <c r="G126" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>782</v>
-      </c>
       <c r="H126" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="I126" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="J126" s="2"/>
       <c r="K126" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N126" s="2" t="s">
         <v>24</v>
@@ -9338,36 +9353,36 @@
         <v>0</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F127" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="G127" s="2" t="s">
-        <v>789</v>
-      </c>
       <c r="H127" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J127" s="2"/>
       <c r="K127" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N127" s="2" t="s">
         <v>24</v>
@@ -9381,34 +9396,34 @@
         <v>0</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="G128" s="2" t="s">
-        <v>794</v>
-      </c>
       <c r="H128" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="I128" s="2" t="s">
         <v>796</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>797</v>
       </c>
       <c r="J128" s="2"/>
       <c r="K128" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>24</v>
@@ -9422,36 +9437,36 @@
         <v>0</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F129" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="G129" s="2" t="s">
-        <v>800</v>
-      </c>
       <c r="H129" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J129" s="2"/>
       <c r="K129" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>24</v>
@@ -9465,36 +9480,36 @@
         <v>0</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F130" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="G130" s="2" t="s">
-        <v>804</v>
-      </c>
       <c r="H130" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J130" s="2"/>
       <c r="K130" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N130" s="2" t="s">
         <v>24</v>
@@ -9508,36 +9523,36 @@
         <v>0</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F131" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="G131" s="2" t="s">
-        <v>807</v>
-      </c>
       <c r="H131" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J131" s="2"/>
       <c r="K131" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>24</v>
@@ -9551,36 +9566,36 @@
         <v>0</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F132" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="G132" s="2" t="s">
-        <v>812</v>
-      </c>
       <c r="H132" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="I132" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="J132" s="2"/>
       <c r="K132" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>24</v>
@@ -9594,36 +9609,36 @@
         <v>0</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F133" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="G133" s="2" t="s">
-        <v>818</v>
-      </c>
       <c r="H133" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J133" s="2"/>
       <c r="K133" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N133" s="2" t="s">
         <v>24</v>
@@ -9637,36 +9652,36 @@
         <v>0</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F134" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="G134" s="2" t="s">
-        <v>823</v>
-      </c>
       <c r="H134" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J134" s="2"/>
       <c r="K134" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N134" s="2" t="s">
         <v>24</v>
@@ -9680,36 +9695,36 @@
         <v>0</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F135" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="G135" s="2" t="s">
-        <v>828</v>
-      </c>
       <c r="H135" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="I135" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="J135" s="2"/>
       <c r="K135" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N135" s="2" t="s">
         <v>24</v>
@@ -9723,36 +9738,36 @@
         <v>0</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F136" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="G136" s="2" t="s">
-        <v>831</v>
-      </c>
       <c r="H136" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J136" s="2"/>
       <c r="K136" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N136" s="2" t="s">
         <v>24</v>
@@ -9766,36 +9781,36 @@
         <v>0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F137" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>836</v>
-      </c>
       <c r="H137" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="I137" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>839</v>
       </c>
       <c r="J137" s="2"/>
       <c r="K137" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N137" s="2" t="s">
         <v>24</v>
@@ -9809,36 +9824,36 @@
         <v>0</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F138" s="2" t="s">
+      <c r="G138" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="2" t="s">
-        <v>843</v>
-      </c>
       <c r="H138" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J138" s="2"/>
       <c r="K138" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>24</v>
@@ -9852,36 +9867,36 @@
         <v>0</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F139" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>848</v>
-      </c>
       <c r="H139" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="I139" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>851</v>
       </c>
       <c r="J139" s="2"/>
       <c r="K139" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N139" s="2" t="s">
         <v>24</v>
@@ -9895,36 +9910,36 @@
         <v>0</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F140" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="G140" s="2" t="s">
-        <v>854</v>
-      </c>
       <c r="H140" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="I140" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="J140" s="2"/>
       <c r="K140" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N140" s="2" t="s">
         <v>24</v>
@@ -9938,36 +9953,36 @@
         <v>0</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F141" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="G141" s="2" t="s">
-        <v>857</v>
-      </c>
       <c r="H141" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J141" s="2"/>
       <c r="K141" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N141" s="2" t="s">
         <v>24</v>
@@ -9981,36 +9996,36 @@
         <v>0</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J142" s="2"/>
       <c r="K142" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>24</v>
@@ -10024,36 +10039,36 @@
         <v>0</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F143" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="G143" s="2" t="s">
-        <v>864</v>
-      </c>
       <c r="H143" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J143" s="2"/>
       <c r="K143" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N143" s="2" t="s">
         <v>24</v>
@@ -10067,36 +10082,36 @@
         <v>0</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J144" s="2"/>
       <c r="K144" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N144" s="2" t="s">
         <v>24</v>
@@ -10110,36 +10125,36 @@
         <v>0</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F145" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="G145" s="2" t="s">
-        <v>870</v>
-      </c>
       <c r="H145" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J145" s="2"/>
       <c r="K145" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N145" s="2" t="s">
         <v>24</v>
@@ -10153,36 +10168,36 @@
         <v>0</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F146" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="G146" s="2" t="s">
-        <v>875</v>
-      </c>
       <c r="H146" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J146" s="2"/>
       <c r="K146" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N146" s="2" t="s">
         <v>24</v>
@@ -10196,36 +10211,36 @@
         <v>0</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F147" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="G147" s="2" t="s">
-        <v>879</v>
-      </c>
       <c r="H147" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="I147" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="J147" s="2"/>
       <c r="K147" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N147" s="2" t="s">
         <v>24</v>
@@ -10239,36 +10254,36 @@
         <v>0</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F148" s="2" t="s">
+      <c r="G148" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="G148" s="2" t="s">
-        <v>883</v>
-      </c>
       <c r="H148" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J148" s="2"/>
       <c r="K148" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N148" s="2" t="s">
         <v>24</v>
@@ -10282,36 +10297,36 @@
         <v>0</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H149" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="I149" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="J149" s="2"/>
       <c r="K149" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N149" s="2" t="s">
         <v>24</v>
@@ -10325,36 +10340,36 @@
         <v>0</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F150" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="G150" s="2" t="s">
-        <v>889</v>
-      </c>
       <c r="H150" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J150" s="2"/>
       <c r="K150" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N150" s="2" t="s">
         <v>24</v>
@@ -10368,36 +10383,36 @@
         <v>0</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J151" s="2"/>
       <c r="K151" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N151" s="2" t="s">
         <v>24</v>
@@ -10411,36 +10426,36 @@
         <v>0</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F152" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="G152" s="2" t="s">
-        <v>895</v>
-      </c>
       <c r="H152" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J152" s="2"/>
       <c r="K152" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N152" s="2" t="s">
         <v>24</v>
@@ -10454,36 +10469,36 @@
         <v>0</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H153" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="I153" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="J153" s="2"/>
       <c r="K153" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N153" s="2" t="s">
         <v>24</v>
@@ -10497,36 +10512,36 @@
         <v>0</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F154" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="G154" s="2" t="s">
-        <v>900</v>
-      </c>
       <c r="H154" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N154" s="2" t="s">
         <v>24</v>
@@ -10540,36 +10555,36 @@
         <v>0</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F155" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="G155" s="2" t="s">
-        <v>903</v>
-      </c>
       <c r="H155" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="I155" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="J155" s="2"/>
       <c r="K155" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N155" s="2" t="s">
         <v>24</v>
@@ -10583,36 +10598,36 @@
         <v>0</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F156" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="G156" s="2" t="s">
-        <v>906</v>
-      </c>
       <c r="H156" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J156" s="2"/>
       <c r="K156" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N156" s="2" t="s">
         <v>24</v>
@@ -10626,36 +10641,36 @@
         <v>0</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F157" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="G157" s="2" t="s">
-        <v>909</v>
-      </c>
       <c r="H157" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="I157" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="J157" s="2"/>
       <c r="K157" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N157" s="2" t="s">
         <v>24</v>
@@ -10669,36 +10684,36 @@
         <v>0</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F158" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="G158" s="2" t="s">
-        <v>912</v>
-      </c>
       <c r="H158" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J158" s="2"/>
       <c r="K158" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N158" s="2" t="s">
         <v>24</v>
@@ -10712,36 +10727,36 @@
         <v>0</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F159" s="2" t="s">
+      <c r="G159" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="G159" s="2" t="s">
-        <v>916</v>
-      </c>
       <c r="H159" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J159" s="2"/>
       <c r="K159" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N159" s="2" t="s">
         <v>24</v>
@@ -10755,36 +10770,36 @@
         <v>0</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J160" s="2"/>
       <c r="K160" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N160" s="2" t="s">
         <v>24</v>
@@ -10798,36 +10813,36 @@
         <v>0</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F161" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="G161" s="2" t="s">
-        <v>925</v>
-      </c>
       <c r="H161" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J161" s="2"/>
       <c r="K161" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N161" s="2" t="s">
         <v>24</v>
@@ -10841,36 +10856,36 @@
         <v>0</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F162" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="G162" s="2" t="s">
-        <v>930</v>
-      </c>
       <c r="H162" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="I162" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="J162" s="2"/>
       <c r="K162" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N162" s="2" t="s">
         <v>24</v>
@@ -10884,36 +10899,36 @@
         <v>0</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F163" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="G163" s="2" t="s">
-        <v>933</v>
-      </c>
       <c r="H163" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J163" s="2"/>
       <c r="K163" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="N163" s="2" t="s">
         <v>24</v>
@@ -10927,36 +10942,36 @@
         <v>0</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F164" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="G164" s="2" t="s">
-        <v>939</v>
-      </c>
       <c r="H164" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N164" s="2" t="s">
         <v>24</v>
@@ -10970,36 +10985,36 @@
         <v>0</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F165" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="G165" s="2" t="s">
-        <v>943</v>
-      </c>
       <c r="H165" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N165" s="2" t="s">
         <v>24</v>
@@ -11013,36 +11028,36 @@
         <v>0</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F166" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="G166" s="2" t="s">
-        <v>947</v>
-      </c>
       <c r="H166" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="I166" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="J166" s="2"/>
       <c r="K166" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N166" s="2" t="s">
         <v>24</v>
@@ -11056,36 +11071,36 @@
         <v>0</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F167" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="G167" s="2" t="s">
-        <v>950</v>
-      </c>
       <c r="H167" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J167" s="2"/>
       <c r="K167" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N167" s="2" t="s">
         <v>24</v>
@@ -11099,36 +11114,36 @@
         <v>0</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J168" s="2"/>
       <c r="K168" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N168" s="2" t="s">
         <v>24</v>
@@ -11142,36 +11157,36 @@
         <v>0</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F169" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="G169" s="2" t="s">
-        <v>955</v>
-      </c>
       <c r="H169" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J169" s="2"/>
       <c r="K169" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N169" s="2" t="s">
         <v>24</v>
@@ -11185,36 +11200,36 @@
         <v>0</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F170" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="G170" s="2" t="s">
-        <v>959</v>
-      </c>
       <c r="H170" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="I170" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N170" s="2" t="s">
         <v>24</v>
@@ -11228,36 +11243,36 @@
         <v>0</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N171" s="2" t="s">
         <v>24</v>
@@ -11271,36 +11286,36 @@
         <v>0</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N172" s="2" t="s">
         <v>24</v>
@@ -11314,53 +11329,84 @@
         <v>0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F173" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="H173" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="L173" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="H173" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="J173" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="M173" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="N173" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O173" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="L173" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="M173" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="N173" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O173" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L173" r:id="rId1"/>
+    <hyperlink ref="L174" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Scanorders2/src/Oleg/UserdirectoryBundle/Util/users.xlsx
+++ b/Scanorders2/src/Oleg/UserdirectoryBundle/Util/users.xlsx
@@ -10,7 +10,7 @@
     <sheet name="owssvr.dll" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="owssvr.dll" localSheetId="0" hidden="1">owssvr.dll!$A$1:$O$174</definedName>
+    <definedName name="owssvr.dll" localSheetId="0" hidden="1">owssvr.dll!$A$1:$O$173</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="971">
   <si>
     <t>A</t>
   </si>
@@ -2935,21 +2935,6 @@
   </si>
   <si>
     <t>C-312</t>
-  </si>
-  <si>
-    <t>Oleg Ivanov</t>
-  </si>
-  <si>
-    <t>Ivanov</t>
-  </si>
-  <si>
-    <t>Oleg</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>oli2002@med.cornell.edu</t>
   </si>
   <si>
     <t>Pathology informatics</t>
@@ -3594,8 +3579,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr.dll" displayName="Table_owssvr.dll" ref="A1:O174" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:O174"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr.dll" displayName="Table_owssvr.dll" ref="A1:O173" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:O173"/>
   <tableColumns count="15">
     <tableColumn id="1" uniqueName="A" name="A" queryTableFieldId="1" dataDxfId="14"/>
     <tableColumn id="2" uniqueName="Primary_x005f_x0020_Group" name="Primary Group" queryTableFieldId="2" dataDxfId="13"/>
@@ -3872,7 +3857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3880,10 +3865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O174"/>
+  <dimension ref="A1:O173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+      <selection activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4558,7 +4543,7 @@
         <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
@@ -6117,7 +6102,7 @@
         <v>300</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -6244,7 +6229,7 @@
         <v>300</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -11369,44 +11354,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L173" r:id="rId1"/>
-    <hyperlink ref="L174" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>